--- a/instance/zyjk/swagger/i.xlsx
+++ b/instance/zyjk/swagger/i.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>code={string}&amp;type={string}</t>
+          <t>code={*string}&amp;type={*string}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -591,7 +591,11 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>code={string}</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>[{'name': 'code', 'in': 'query', 'description': 'code', 'required': False, 'type': 'string'}]</t>

--- a/instance/zyjk/swagger/i.xlsx
+++ b/instance/zyjk/swagger/i.xlsx
@@ -35,12 +35,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +61,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,9 +446,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="60" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>tags</t>
@@ -714,61 +739,69 @@
   </sheetPr>
   <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="18.44140625" customWidth="1" min="1" max="1"/>
+    <col width="37.21875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="10.21875" customWidth="1" min="4" max="4"/>
+    <col width="17.88671875" customWidth="1" min="5" max="5"/>
+    <col width="32.6640625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="40.21875" customWidth="1" style="1" min="7" max="7"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="25.2" customFormat="1" customHeight="1" s="4">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="72" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>医患交流信息表接口</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>群发消息-PC</t>
         </is>
@@ -788,19 +821,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>{'breviary': '', 'createType': 0, 'docId': 0, 'docName': '', 'messageContent': '', 'messageTime': '', 'messageType': 0, 'patientId': '', 'patientName': ''}</t>
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="86.40000000000001" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>医患交流信息表接口</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>发送消息-APP、PC</t>
         </is>
@@ -820,19 +853,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>{'breviary': '', 'createType': 0, 'docId': 0, 'docName': '', 'messageContent': '', 'messageTime': '', 'messageType': 0, 'patientId': '', 'patientName': ''}</t>
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="57.6" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>医患交流信息表接口</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>点击医患交流按钮，增加医生与患者聊天记录-PC</t>
         </is>
@@ -852,19 +885,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>{'docId': 0, 'id': 0, 'isDocRead': 0, 'isPatientRead': 0, 'patientId': ''}</t>
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="43.2" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>医患交流信息表接口</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>(高血压)查询当前医生所有交流过的患者列表-APP</t>
         </is>
@@ -879,7 +912,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>currentPage={integer}&amp;docId={integer}&amp;itemId={integer}&amp;pageSize={integer}</t>
         </is>
@@ -890,13 +923,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="57.6" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>医患交流信息表接口</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>查询当前医生与某位患者聊天记录-APP、PC</t>
         </is>
@@ -911,7 +944,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>currentPage={integer}&amp;docId={integer}&amp;pageSize={integer}&amp;patientId={string}</t>
         </is>
@@ -922,13 +955,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="57.6" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>医患交流信息表接口</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>查询当前医生所有交流过的患者列表-APP、PC</t>
         </is>
@@ -943,7 +976,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>currentPage={integer}&amp;docId={integer}&amp;itemId={integer}&amp;pageSize={integer}</t>
         </is>
@@ -954,13 +987,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="28.8" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>医患交流信息表接口</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>查询当前医生与某位患者聊天记录总条数-APP、PC</t>
         </is>
@@ -975,7 +1008,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>docId={integer}&amp;patientId={integer}</t>
         </is>
@@ -992,7 +1025,7 @@
           <t>医患交流BI</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>BI医患交流模块-PC</t>
         </is>
@@ -1014,7 +1047,7 @@
           <t>血压数据接口--暂时废弃</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>查看患者数据(趋势项目图)</t>
         </is>
@@ -1041,7 +1074,7 @@
           <t>血压数据接口--暂时废弃</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>查看患者历史数据(列表)</t>
         </is>
@@ -1068,7 +1101,7 @@
           <t>血压数据接口--暂时废弃</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>查看患者数据(趋势图)</t>
         </is>
@@ -1095,7 +1128,7 @@
           <t>血压数据接口--暂时废弃</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>查询患者最近二十条血压数据</t>
         </is>
@@ -1122,7 +1155,7 @@
           <t>业务模块，公共服务--pc</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>查询--把汉字转拼音</t>
         </is>
@@ -1149,7 +1182,7 @@
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>获取当前高血压配置信息</t>
         </is>
@@ -1176,7 +1209,7 @@
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>获取随访明细信息</t>
         </is>
@@ -1203,7 +1236,7 @@
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>查询患者随访记录信息</t>
         </is>
@@ -1230,7 +1263,7 @@
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>分层分级管理查询</t>
         </is>
@@ -1252,7 +1285,7 @@
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>查询历史患者随访信息</t>
         </is>
@@ -1267,7 +1300,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="1" t="inlineStr">
         <is>
           <t>patientId={string}</t>
         </is>
@@ -1284,7 +1317,7 @@
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>查询历史患者随访明细</t>
         </is>
@@ -1299,7 +1332,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>patientId={string}</t>
         </is>
@@ -1316,7 +1349,7 @@
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>两次随访血压未达标患者</t>
         </is>
@@ -1343,7 +1376,7 @@
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>一周内待随访患者查询</t>
         </is>
@@ -1370,7 +1403,7 @@
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>逾期随访患者查询</t>
         </is>
@@ -1391,13 +1424,13 @@
         </is>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="28.8" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>根据项目id查询对应唯一一条的随访计划信息（高血压系统）</t>
         </is>
@@ -1418,13 +1451,13 @@
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="172.8" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>保存患者高血压表单信息</t>
         </is>
@@ -1444,19 +1477,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'diastolicPressure': '', 'formFinish': 0, 'id': 0, 'infoId': '', 'isDelete': 0, 'medicalInfoImg': '', 'pId': '', 'planId': 0, 'status': '', 'systolicPressure': '', 'updateId': 0, 'updateTime': ''}</t>
         </is>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="172.8" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>修改患者随访表单信息</t>
         </is>
@@ -1476,7 +1509,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="1" t="inlineStr">
         <is>
           <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'diastolicPressure': '', 'formFinish': 0, 'id': 0, 'infoId': '', 'isDelete': 0, 'medicalInfoImg': '', 'pId': '', 'planId': 0, 'status': '', 'systolicPressure': '', 'updateId': 0, 'updateTime': ''}</t>
         </is>
@@ -1488,7 +1521,7 @@
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>更改管理级别</t>
         </is>
@@ -1520,7 +1553,7 @@
           <t>PC端心电报告</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>分页查询心电报告</t>
         </is>
@@ -1547,7 +1580,7 @@
           <t>PC端心电报告</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>查询心电报告明细</t>
         </is>
@@ -1568,13 +1601,13 @@
         </is>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="28.8" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
           <t>PC端心电报告</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>pc端查看当前登陆人所在机构心电图相关统计</t>
         </is>
@@ -1590,13 +1623,13 @@
         </is>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="115.2" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>保存随访记录</t>
         </is>
@@ -1616,19 +1649,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'id': 0, 'infoId': 0, 'isDelete': 0, 'planDataJson': '', 'planId': 0, 'planName': '', 'updateId': 0, 'updateTime': ''}</t>
         </is>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="86.40000000000001" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>给患者添加随访方案</t>
         </is>
@@ -1648,19 +1681,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="1" t="inlineStr">
         <is>
           <t>{'age': '', 'birthday': '', 'empiId': '', 'followPlanId': 0, 'followUpName': '', 'id': 0, 'idCardNo': '', 'itemId': 0, 'name': '', 'phone': '', 'sex': 0, 'versionsId': 0}</t>
         </is>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="172.8" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>随访提醒</t>
         </is>
@@ -1680,19 +1713,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="1" t="inlineStr">
         <is>
           <t>{'empiId': '', 'followEndTime': '', 'followStartTime': '', 'followUpCount': 0, 'followUpName': '', 'followUpPlan': 0, 'followUpTime': '', 'id': 0, 'lastFollowTime': 0, 'lastRemindTime': '', 'phone': '', 'pname': '', 'relationId': '', 'remindCount': 0, 'sex': ''}</t>
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="43.2" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>批量随访提醒</t>
         </is>
@@ -1712,7 +1745,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="1" t="inlineStr">
         <is>
           <t>itemId={integer}&amp;overdueTime={string}&amp;remindCount={string}</t>
         </is>
@@ -1729,7 +1762,7 @@
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>随访方案统计和随访记录统计</t>
         </is>
@@ -1744,7 +1777,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="1" t="inlineStr">
         <is>
           <t>itemId={string}</t>
         </is>
@@ -1755,13 +1788,13 @@
         </is>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="201.6" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>结束随访</t>
         </is>
@@ -1781,19 +1814,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" s="1" t="inlineStr">
         <is>
           <t>{'age': '', 'createId': 0, 'createTime': '', 'docId': '', 'empiId': '', 'followUpCount': 0, 'followUpName': '', 'followUpPlan': '', 'followUpStatus': '', 'followUpTime': '', 'id': 0, 'isDelete': 0, 'itemId': 0, 'lastFollowTime': 0, 'lastRemindTime': '', 'pName': '', 'phone': '', 'pname': '', 'remindCount': 0, 'sex': '', 'updateId': 0, 'updateTime': '', 'versionsId': 0}</t>
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="43.2" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>所有患者列表查询</t>
         </is>
@@ -1808,7 +1841,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="1" t="inlineStr">
         <is>
           <t>current={string}&amp;itemId={integer}&amp;pageSize={string}</t>
         </is>
@@ -1825,7 +1858,7 @@
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>APP查询随访记录</t>
         </is>
@@ -1840,7 +1873,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="1" t="inlineStr">
         <is>
           <t>patientId={string}</t>
         </is>
@@ -1857,7 +1890,7 @@
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>查询单条随访明细</t>
         </is>
@@ -1872,7 +1905,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="1" t="inlineStr">
         <is>
           <t>id={string}</t>
         </is>
@@ -1889,7 +1922,7 @@
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>查询随访记录</t>
         </is>
@@ -1904,7 +1937,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="1" t="inlineStr">
         <is>
           <t>id={string}</t>
         </is>
@@ -1921,7 +1954,7 @@
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>未加入随访列表查询</t>
         </is>
@@ -1942,13 +1975,13 @@
         </is>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="43.2" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>逾期未随访列表查询</t>
         </is>
@@ -1963,7 +1996,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="1" t="inlineStr">
         <is>
           <t>current={string}&amp;itemId={integer}&amp;pageSize={string}</t>
         </is>
@@ -1974,13 +2007,13 @@
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="43.2" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>待随访列表查询</t>
         </is>
@@ -1995,7 +2028,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="1" t="inlineStr">
         <is>
           <t>current={integer}&amp;itemId={integer}&amp;pageSize={integer}</t>
         </is>
@@ -2012,7 +2045,7 @@
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>获取当前系统时间</t>
         </is>
@@ -2034,7 +2067,7 @@
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>查询点击添加随访按钮显示的表格</t>
         </is>
@@ -2049,7 +2082,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="1" t="inlineStr">
         <is>
           <t>id={string}</t>
         </is>
@@ -2060,13 +2093,13 @@
         </is>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="115.2" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>修改创建时间</t>
         </is>
@@ -2086,19 +2119,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" s="1" t="inlineStr">
         <is>
           <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'id': 0, 'infoId': 0, 'isDelete': 0, 'planDataJson': '', 'planId': 0, 'planName': '', 'updateId': 0, 'updateTime': ''}</t>
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="115.2" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
           <t>心电随访模块</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>修改随访记录</t>
         </is>
@@ -2118,19 +2151,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" s="1" t="inlineStr">
         <is>
           <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'id': 0, 'infoId': 0, 'isDelete': 0, 'planDataJson': '', 'planId': 0, 'planName': '', 'updateId': 0, 'updateTime': ''}</t>
         </is>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="57.6" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
           <t>统计查询-PC</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>入组患者-分页查询</t>
         </is>
@@ -2150,19 +2183,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" s="1" t="inlineStr">
         <is>
           <t>{'currPage': 0, 'dateBegin': '', 'dateEnd': '', 'orgIdList': [], 'pageSize': 0}</t>
         </is>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="57.6" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
           <t>统计查询-PC</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>入组患者-导出</t>
         </is>
@@ -2182,7 +2215,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" s="1" t="inlineStr">
         <is>
           <t>{'currPage': 0, 'dateBegin': '', 'dateEnd': '', 'orgIdList': [], 'pageSize': 0}</t>
         </is>
@@ -2194,7 +2227,7 @@
           <t>统计查询-PC</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>随访情况导出</t>
         </is>
@@ -2221,7 +2254,7 @@
           <t>统计查询-PC</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>随访情况统计</t>
         </is>
@@ -2242,13 +2275,13 @@
         </is>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="72" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
           <t>历史患者接口</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>增加历史患者-pc</t>
         </is>
@@ -2268,19 +2301,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" s="1" t="inlineStr">
         <is>
           <t>{'belongDoctorId': 0, 'belongDoctorName': '', 'birthday': '', 'itemId': 0, 'orgId': 0, 'patientName': '', 'phone': '', 'sex': ''}</t>
         </is>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="72" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
           <t>历史患者接口</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>编辑历史患者-pc</t>
         </is>
@@ -2300,19 +2333,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" s="1" t="inlineStr">
         <is>
           <t>{'belongDoctorId': 0, 'belongDoctorName': '', 'birthday': '', 'patientId': '', 'patientName': '', 'phone': '', 'sex': ''}</t>
         </is>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="57.6" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
           <t>历史患者接口</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="1" t="inlineStr">
         <is>
           <t>分页查询历史患者-pc</t>
         </is>
@@ -2332,7 +2365,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" s="1" t="inlineStr">
         <is>
           <t>{'currPage': 0, 'doctorName': '', 'endAge': 0, 'pageSize': 0, 'patientName': '', 'startAge': 0}</t>
         </is>
@@ -2344,7 +2377,7 @@
           <t>高血压首页-PC</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>查询高血压首页数据</t>
         </is>
@@ -2371,7 +2404,7 @@
           <t>用户系统中心-组织机构</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="1" t="inlineStr">
         <is>
           <t>根据织机构Id删除</t>
         </is>
@@ -2403,7 +2436,7 @@
           <t>用户系统中心-组织机构</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="1" t="inlineStr">
         <is>
           <t>根据织机构Id查询</t>
         </is>
@@ -2430,7 +2463,7 @@
           <t>用户系统中心-组织机构</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <t>根据织机构Id查询子机构</t>
         </is>
@@ -2457,7 +2490,7 @@
           <t>用户系统中心-组织机构</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="1" t="inlineStr">
         <is>
           <t>查询组所有织机构</t>
         </is>
@@ -2489,7 +2522,7 @@
           <t>用户系统中心-组织机构</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="1" t="inlineStr">
         <is>
           <t>分页查询组织机构</t>
         </is>
@@ -2515,13 +2548,13 @@
         </is>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="158.4" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
           <t>用户系统中心-组织机构</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="1" t="inlineStr">
         <is>
           <t>添加或者修改组织机构</t>
         </is>
@@ -2541,7 +2574,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" s="1" t="inlineStr">
         <is>
           <t>{'address': '', 'createId': 0, 'createName': '', 'createTime': '', 'dutyId': 0, 'endDate': '', 'id': 0, 'orgName': '', 'orgNo': '', 'parentId': 0, 'parentNo': '', 'pinYin': '', 'relationPhone': '', 'relationid': 0, 'startDate': '', 'status': 0, 'updateId': 0, 'updateName': '', 'updateTime': ''}</t>
         </is>
@@ -2553,7 +2586,7 @@
           <t>用户系统中心-组织机构</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="1" t="inlineStr">
         <is>
           <t>启用或者停用织机构</t>
         </is>
@@ -2579,13 +2612,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="409.6" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
           <t>血压评估接口</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="1" t="inlineStr">
         <is>
           <t>新增-APP</t>
         </is>
@@ -2605,7 +2638,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" s="1" t="inlineStr">
         <is>
           <t>{'age': '', 'ageAtOnsetOfMaternalHypertension': '', 'ageAtOnsetOfSiblingStroke': '', 'ageAtOnsetOfSisterStroke': '', 'ageBrothersCoronaryHeartDisease': '', 'ageFatherCoronaryHeartDisease': '', 'ageOfMaternalStrokeOnset': '', 'ageOfOnsetOfPaternalHypertension': '', 'ageOfOnsetOfSisterHypertension': '', 'ageOfOnsetOfStrokeInTheFather': '', 'ageSisterCoronaryHeartDisease': '', 'armBloodPressureIndex': '', 'bloodGlucose2HoursPostprandial': '', 'bloodHomocysteine': '', 'brotherHypertensionOnsetAge': '', 'carotidAtheroscleroticPlaque': '', 'carotidUltrasoundImt': '', 'clinicalDiseases': '', 'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'fastingPlasmaGlucose': '', 'femoralArteryPulseWaveVelocity': '', 'hba1c': '', 'heartRate': 0, 'height': '', 'highDensityLipoproteinCholesterol': '', 'hoursUrinaryMicroalbumin': '', 'id': 0, 'isDelete': 0, 'isFamilyCoronaryHeartDisease': '', 'isFamilyHasHadAStroke': '', 'isFamilyHaveHighBloodPressure': '', 'leftVentricularHypertrophy': '', 'lowDensityLipoproteinCholesterol': '', 'managementLevel': '', 'managementLevelShow': '', 'measurementDate': '', 'measurementResult': '', 'measurementResultShow': '', 'montherCoronaryHeartDisease': '', 'serumCreatinine': '', 'sex': '', 'smoking': '', 'state': 0, 'systolicPressure': 0, 'totalCholesterol': '', 'updateId': 0, 'updateTime': '', 'urinaryTraceAlbumin': '', 'waistCircumference': '', 'weight': ''}</t>
         </is>
@@ -2617,7 +2650,7 @@
           <t>血压评估接口</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="1" t="inlineStr">
         <is>
           <t>通过ID获取一条数据-APP</t>
         </is>
@@ -2644,7 +2677,7 @@
           <t>血压评估接口</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="1" t="inlineStr">
         <is>
           <t>并发症枚举-APP</t>
         </is>
@@ -2666,7 +2699,7 @@
           <t>血压评估接口</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="1" t="inlineStr">
         <is>
           <t>吸烟类型枚举-APP</t>
         </is>
@@ -2688,7 +2721,7 @@
           <t>血压评估接口</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="1" t="inlineStr">
         <is>
           <t>查询患者评估历史记录-APP</t>
         </is>
@@ -2709,13 +2742,13 @@
         </is>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="409.6" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
           <t>血压评估接口</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="1" t="inlineStr">
         <is>
           <t>更新-APP</t>
         </is>
@@ -2735,7 +2768,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G68" s="1" t="inlineStr">
         <is>
           <t>{'age': '', 'ageAtOnsetOfMaternalHypertension': '', 'ageAtOnsetOfSiblingStroke': '', 'ageAtOnsetOfSisterStroke': '', 'ageBrothersCoronaryHeartDisease': '', 'ageFatherCoronaryHeartDisease': '', 'ageOfMaternalStrokeOnset': '', 'ageOfOnsetOfPaternalHypertension': '', 'ageOfOnsetOfSisterHypertension': '', 'ageOfOnsetOfStrokeInTheFather': '', 'ageSisterCoronaryHeartDisease': '', 'armBloodPressureIndex': '', 'bloodGlucose2HoursPostprandial': '', 'bloodHomocysteine': '', 'brotherHypertensionOnsetAge': '', 'carotidAtheroscleroticPlaque': '', 'carotidUltrasoundImt': '', 'clinicalDiseases': '', 'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'fastingPlasmaGlucose': '', 'femoralArteryPulseWaveVelocity': '', 'hba1c': '', 'heartRate': 0, 'height': '', 'highDensityLipoproteinCholesterol': '', 'hoursUrinaryMicroalbumin': '', 'id': 0, 'isDelete': 0, 'isFamilyCoronaryHeartDisease': '', 'isFamilyHasHadAStroke': '', 'isFamilyHaveHighBloodPressure': '', 'leftVentricularHypertrophy': '', 'lowDensityLipoproteinCholesterol': '', 'managementLevel': '', 'managementLevelShow': '', 'measurementDate': '', 'measurementResult': '', 'measurementResultShow': '', 'montherCoronaryHeartDisease': '', 'serumCreatinine': '', 'sex': '', 'smoking': '', 'state': 0, 'systolicPressure': 0, 'totalCholesterol': '', 'updateId': 0, 'updateTime': '', 'urinaryTraceAlbumin': '', 'waistCircumference': '', 'weight': ''}</t>
         </is>
@@ -2747,7 +2780,7 @@
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="1" t="inlineStr">
         <is>
           <t>已接收查询-APP</t>
         </is>
@@ -2774,7 +2807,7 @@
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="1" t="inlineStr">
         <is>
           <t>转回确认-APP</t>
         </is>
@@ -2800,13 +2833,13 @@
         </is>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="345.6" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="1" t="inlineStr">
         <is>
           <t>转回申请-APP</t>
         </is>
@@ -2826,19 +2859,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G71" s="1" t="inlineStr">
         <is>
           <t>{'acceptedType': '', 'age': '', 'applyForDate': '', 'applyForDocId': 0, 'applyForDocName': '', 'applyForImages': '', 'applyForOrgName': '', 'applyForOrgNo': '', 'empiId': '', 'historyState': 0, 'id': 0, 'isDelete': 0, 'name': '', 'patientInfo': '', 'pendingType': '', 'receptionDate': '', 'receptionDocId': 0, 'receptionDocName': '', 'receptionImages': '', 'receptionOrgName': '', 'receptionOrgNo': '', 'recommendedTreatment': '', 'recordType': '', 'returnAffirmDate': '', 'returnApplyForDate': '', 'sex': '', 'sexShow': '', 'signsAndSymptoms': '', 'state': 0, 'treatmentOf': ''}</t>
         </is>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="345.6" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="1" t="inlineStr">
         <is>
           <t>新增-APP</t>
         </is>
@@ -2858,7 +2891,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G72" s="1" t="inlineStr">
         <is>
           <t>{'acceptedType': '', 'age': '', 'applyForDate': '', 'applyForDocId': 0, 'applyForDocName': '', 'applyForImages': '', 'applyForOrgName': '', 'applyForOrgNo': '', 'empiId': '', 'historyState': 0, 'id': 0, 'isDelete': 0, 'name': '', 'patientInfo': '', 'pendingType': '', 'receptionDate': '', 'receptionDocId': 0, 'receptionDocName': '', 'receptionImages': '', 'receptionOrgName': '', 'receptionOrgNo': '', 'recommendedTreatment': '', 'recordType': '', 'returnAffirmDate': '', 'returnApplyForDate': '', 'sex': '', 'sexShow': '', 'signsAndSymptoms': '', 'state': 0, 'treatmentOf': ''}</t>
         </is>
@@ -2870,7 +2903,7 @@
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="1" t="inlineStr">
         <is>
           <t>通过empiId获取是否在转诊中-APP</t>
         </is>
@@ -2897,7 +2930,7 @@
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="1" t="inlineStr">
         <is>
           <t>通过ID获取一条数据-APP</t>
         </is>
@@ -2924,7 +2957,7 @@
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="1" t="inlineStr">
         <is>
           <t>转入确认-APP</t>
         </is>
@@ -2956,7 +2989,7 @@
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="1" t="inlineStr">
         <is>
           <t>待处理查询-APP</t>
         </is>
@@ -2983,7 +3016,7 @@
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="1" t="inlineStr">
         <is>
           <t>转诊记录查询-APP</t>
         </is>
@@ -3010,7 +3043,7 @@
           <t>用户系统中心-菜单管理(本系统)</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="1" t="inlineStr">
         <is>
           <t>用户登陆后获取左侧菜单</t>
         </is>
@@ -3037,7 +3070,7 @@
           <t>用户系统中心-菜单管理(本系统)</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="1" t="inlineStr">
         <is>
           <t>用户登陆后获取项目按钮列表</t>
         </is>
@@ -3064,7 +3097,7 @@
           <t>用户系统中心-菜单管理(本系统)</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="1" t="inlineStr">
         <is>
           <t>获取所有菜单</t>
         </is>
@@ -3086,7 +3119,7 @@
           <t>用户系统中心-菜单管理(本系统)</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="1" t="inlineStr">
         <is>
           <t>从菜单表中获取所有系统</t>
         </is>
@@ -3102,13 +3135,13 @@
         </is>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="28.8" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
           <t>用户系统中心-菜单管理(本系统)</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="1" t="inlineStr">
         <is>
           <t>从菜单表中获取系统列表,从项目菜单关系表获取已选择系统(菜单)</t>
         </is>
@@ -3129,13 +3162,13 @@
         </is>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="187.2" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
           <t>用户系统中心-菜单管理(本系统)</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="1" t="inlineStr">
         <is>
           <t>添加菜单</t>
         </is>
@@ -3155,19 +3188,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G83" s="1" t="inlineStr">
         <is>
           <t>{'additionalFields': '', 'component': '', 'createId': 0, 'createTime': '', 'icon': '', 'id': 0, 'isCheck': 0, 'isHide': 0, 'mate': '', 'menuCode': '', 'name': '', 'orderNum': 0, 'parentCode': '', 'permissionValue': '', 'redirect': '', 'serverType': '', 'status': 0, 'system': '', 'systemType': 0, 'type': 0, 'updateId': 0, 'updateTime': '', 'url': ''}</t>
         </is>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="201.6" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
           <t>用户系统中心-菜单管理(本系统)</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="1" t="inlineStr">
         <is>
           <t>修改菜单</t>
         </is>
@@ -3187,7 +3220,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G84" s="1" t="inlineStr">
         <is>
           <t>{'additionalFields': '', 'children': [], 'component': '', 'createId': 0, 'createTime': '', 'icon': '', 'id': 0, 'isCheck': 0, 'isHide': 0, 'mate': '', 'menuCode': '', 'name': '', 'orderNum': 0, 'parentCode': '', 'permissionValue': '', 'redirect': '', 'serverType': '', 'status': 0, 'system': '', 'systemType': 0, 'type': 0, 'updateId': 0, 'updateTime': '', 'url': ''}</t>
         </is>
@@ -3199,7 +3232,7 @@
           <t>PCI术后评估接口</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="1" t="inlineStr">
         <is>
           <t>通过ID获取一条数据-APP</t>
         </is>
@@ -3220,13 +3253,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="28.8" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
           <t>PCI术后评估接口</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="1" t="inlineStr">
         <is>
           <t>获取患者最新评估结果，null为未评估-APP</t>
         </is>
@@ -3253,7 +3286,7 @@
           <t>PCI术后评估接口</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="1" t="inlineStr">
         <is>
           <t>分页查询历史评估数据-APP</t>
         </is>
@@ -3274,13 +3307,13 @@
         </is>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="158.4" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
           <t>PCI术后评估接口</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="1" t="inlineStr">
         <is>
           <t>提交新的评估-APP</t>
         </is>
@@ -3300,19 +3333,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G88" s="1" t="inlineStr">
         <is>
           <t>{'angina': '', 'arrhythmia': '', 'assessmentTime': '', 'at': '', 'cardiacTroponin': '', 'empiId': '', 'id': 0, 'oxygenUptake': '', 'oxygenUptakePercent': '', 'pci': '', 'psychologicalBarrier': '', 'result': '', 'resultString': '', 'revascularization': '', 'ventricularEjection': ''}</t>
         </is>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="158.4" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
           <t>PCI术后评估接口</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="1" t="inlineStr">
         <is>
           <t>重新评估-APP</t>
         </is>
@@ -3332,19 +3365,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G89" s="1" t="inlineStr">
         <is>
           <t>{'angina': '', 'arrhythmia': '', 'assessmentTime': '', 'at': '', 'cardiacTroponin': '', 'empiId': '', 'id': 0, 'oxygenUptake': '', 'oxygenUptakePercent': '', 'pci': '', 'psychologicalBarrier': '', 'result': '', 'resultString': '', 'revascularization': '', 'ventricularEjection': ''}</t>
         </is>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="100.8" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="1" t="inlineStr">
         <is>
           <t>新增随访记录</t>
         </is>
@@ -3364,19 +3397,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G90" s="1" t="inlineStr">
         <is>
           <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'id': 0, 'infoId': 0, 'isDelete': 0, 'planId': 0, 'updateId': 0, 'updateTime': ''}</t>
         </is>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="86.40000000000001" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="1" t="inlineStr">
         <is>
           <t>给患者添加随访方案</t>
         </is>
@@ -3396,7 +3429,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G91" s="1" t="inlineStr">
         <is>
           <t>{'age': 0, 'empiId': '', 'followPlanId': '', 'followUpName': '', 'identityCard': '', 'itemId': 0, 'patientName': '', 'sex': '', 'versionsId': ''}</t>
         </is>
@@ -3408,7 +3441,7 @@
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="1" t="inlineStr">
         <is>
           <t>查询单条随访明细</t>
         </is>
@@ -3435,7 +3468,7 @@
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="1" t="inlineStr">
         <is>
           <t>获取医生管理的随访用户数</t>
         </is>
@@ -3462,7 +3495,7 @@
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="1" t="inlineStr">
         <is>
           <t>获取随访表单</t>
         </is>
@@ -3489,7 +3522,7 @@
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="1" t="inlineStr">
         <is>
           <t>待随访患者列表</t>
         </is>
@@ -3516,7 +3549,7 @@
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="1" t="inlineStr">
         <is>
           <t>逾期随访患者查询</t>
         </is>
@@ -3543,7 +3576,7 @@
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="1" t="inlineStr">
         <is>
           <t>获取患者随访记录列表</t>
         </is>
@@ -3570,7 +3603,7 @@
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="1" t="inlineStr">
         <is>
           <t>查询患者所属随访方案</t>
         </is>
@@ -3597,7 +3630,7 @@
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="1" t="inlineStr">
         <is>
           <t>根据项目id查询患者可选随访方案</t>
         </is>
@@ -3618,13 +3651,13 @@
         </is>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="100.8" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
           <t>PCI随访接口</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="1" t="inlineStr">
         <is>
           <t>修改随访记录</t>
         </is>
@@ -3644,7 +3677,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G100" s="1" t="inlineStr">
         <is>
           <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'id': 0, 'infoId': 0, 'isDelete': 0, 'planId': 0, 'updateId': 0, 'updateTime': ''}</t>
         </is>
@@ -3656,7 +3689,7 @@
           <t>血压录入记录表接口传--app</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="1" t="inlineStr">
         <is>
           <t>查看患者历史数据(趋势图统计项目)</t>
         </is>
@@ -3683,7 +3716,7 @@
           <t>血压录入记录表接口传--app</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="1" t="inlineStr">
         <is>
           <t>查看患者历史数据(列表图)</t>
         </is>
@@ -3710,7 +3743,7 @@
           <t>血压录入记录表接口传--app</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="1" t="inlineStr">
         <is>
           <t>查看患者历史数据(趋势图)</t>
         </is>
@@ -3731,13 +3764,13 @@
         </is>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="129.6" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
           <t>血压录入记录表接口传--app</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="1" t="inlineStr">
         <is>
           <t>修改患者血压记录</t>
         </is>
@@ -3757,7 +3790,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G104" s="1" t="inlineStr">
         <is>
           <t>{'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'heartRate': 0, 'id': 0, 'isDelete': 0, 'measurementDate': '', 'measuringTime': '', 'rank': '', 'systolicPressure': 0, 'updateId': 0, 'updateTime': '', 'userId': 0}</t>
         </is>
@@ -3769,7 +3802,7 @@
           <t>用户系统中心-角色管理</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="1" t="inlineStr">
         <is>
           <t>删除角色</t>
         </is>
@@ -3784,7 +3817,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="1" t="inlineStr">
         <is>
           <t>id={integer}</t>
         </is>
@@ -3801,7 +3834,7 @@
           <t>用户系统中心-角色管理</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="1" t="inlineStr">
         <is>
           <t>获取已选中权限</t>
         </is>
@@ -3828,7 +3861,7 @@
           <t>用户系统中心-角色管理</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="1" t="inlineStr">
         <is>
           <t>获取所有权限</t>
         </is>
@@ -3850,7 +3883,7 @@
           <t>用户系统中心-角色管理</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="1" t="inlineStr">
         <is>
           <t>添加用户时的角色列表</t>
         </is>
@@ -3877,7 +3910,7 @@
           <t>用户系统中心-角色管理</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="1" t="inlineStr">
         <is>
           <t>角色列表</t>
         </is>
@@ -3899,7 +3932,7 @@
           <t>用户系统中心-角色管理</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="1" t="inlineStr">
         <is>
           <t>根据项目id获取项目权限列表</t>
         </is>
@@ -3920,13 +3953,13 @@
         </is>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="115.2" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
           <t>用户系统中心-角色管理</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="1" t="inlineStr">
         <is>
           <t>添加角色</t>
         </is>
@@ -3946,19 +3979,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G111" s="1" t="inlineStr">
         <is>
           <t>{'createId': 0, 'createTime': '', 'creator': '', 'id': 0, 'isSelected': 0, 'menuCodes': [], 'projectId': [], 'remark': '', 'roleName': '', 'status': 0, 'systemType': 0, 'updateId': 0, 'updateTime': '', 'updater': ''}</t>
         </is>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="115.2" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
           <t>用户系统中心-角色管理</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="1" t="inlineStr">
         <is>
           <t>修改权限</t>
         </is>
@@ -3978,19 +4011,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G112" s="1" t="inlineStr">
         <is>
           <t>{'createId': 0, 'createTime': '', 'creator': '', 'id': 0, 'isSelected': 0, 'menuCodes': [], 'projectId': [], 'remark': '', 'roleName': '', 'status': 0, 'systemType': 0, 'updateId': 0, 'updateTime': '', 'updater': ''}</t>
         </is>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="115.2" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
           <t>用户系统中心-角色管理</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="1" t="inlineStr">
         <is>
           <t>新增/修改角色关联项目</t>
         </is>
@@ -4010,7 +4043,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G113" s="1" t="inlineStr">
         <is>
           <t>{'createId': 0, 'createTime': '', 'creator': '', 'id': 0, 'isSelected': 0, 'menuCodes': [], 'projectId': [], 'remark': '', 'roleName': '', 'status': 0, 'systemType': 0, 'updateId': 0, 'updateTime': '', 'updater': ''}</t>
         </is>
@@ -4022,7 +4055,7 @@
           <t>用户系统中心-角色管理</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="1" t="inlineStr">
         <is>
           <t>修改角色名字和状态</t>
         </is>
@@ -4042,7 +4075,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" s="1" t="inlineStr">
         <is>
           <t>roleId={integer}</t>
         </is>
@@ -4059,7 +4092,7 @@
           <t>用户系统中心-密码规则</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="1" t="inlineStr">
         <is>
           <t>验证密保卡</t>
         </is>
@@ -4086,7 +4119,7 @@
           <t>用户系统中心-密码规则</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="1" t="inlineStr">
         <is>
           <t>查询用户密保卡</t>
         </is>
@@ -4113,7 +4146,7 @@
           <t>用户系统中心-密码规则</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="1" t="inlineStr">
         <is>
           <t>获取密保卡坐标</t>
         </is>
@@ -4140,7 +4173,7 @@
           <t>用户系统中心-密码规则</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="1" t="inlineStr">
         <is>
           <t>添加密码卡(重置密保卡)</t>
         </is>
@@ -4172,7 +4205,7 @@
           <t>用户系统中心-系统配置管理</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="1" t="inlineStr">
         <is>
           <t>查询--系统配置列表</t>
         </is>
@@ -4199,7 +4232,7 @@
           <t>用户系统中心-系统配置管理</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="1" t="inlineStr">
         <is>
           <t>根据条件查询系统配置列表</t>
         </is>
@@ -4231,7 +4264,7 @@
           <t>用户系统中心-系统配置管理</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="1" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
@@ -4252,13 +4285,13 @@
         </is>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="115.2" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
           <t>用户系统中心-系统配置管理</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="1" t="inlineStr">
         <is>
           <t>修改--系统配置维护</t>
         </is>
@@ -4278,7 +4311,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="G122" s="1" t="inlineStr">
         <is>
           <t>{'createTime': '', 'defaultValue': '', 'description': '', 'id': 0, 'inputCode': '', 'inputRange': '', 'inputType': '', 'name': '', 'type': '', 'updateTime': '', 'username': '', 'validScope': '', 'value': ''}</t>
         </is>
@@ -4290,7 +4323,7 @@
           <t>saasuser-系统科室管理--pc</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="1" t="inlineStr">
         <is>
           <t>根据组织机构id查询科室</t>
         </is>
@@ -4322,7 +4355,7 @@
           <t>saasuser-系统科室管理--pc</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="1" t="inlineStr">
         <is>
           <t>科室菜单查询</t>
         </is>
@@ -4343,13 +4376,13 @@
         </is>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="187.2" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
           <t>saasuser-系统科室管理--pc</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="1" t="inlineStr">
         <is>
           <t>新增科室</t>
         </is>
@@ -4369,19 +4402,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="G125" s="1" t="inlineStr">
         <is>
           <t>{'applyUserId': 0, 'applyUserName': '', 'classifyCode': '', 'classifyName': '', 'createId': 0, 'createTime': '', 'deptInfo': '', 'endDate': '', 'id': 0, 'localCode': '', 'localName': '', 'mark': 0, 'orgId': 0, 'parentCode': '', 'position': 0, 'standardCode': '', 'standardName': '', 'startDate': '', 'updateId': 0, 'updateTime': ''}</t>
         </is>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="57.6" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
           <t>saasuser-系统科室管理--pc</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="1" t="inlineStr">
         <is>
           <t>科室是否重复</t>
         </is>
@@ -4401,7 +4434,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F126" s="1" t="inlineStr">
         <is>
           <t>id={integer}&amp;name={string}&amp;orgId={integer}&amp;saveOrUpdate={string}</t>
         </is>
@@ -4418,7 +4451,7 @@
           <t>saasuser-系统科室管理--pc</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="1" t="inlineStr">
         <is>
           <t>科室编辑按钮</t>
         </is>
@@ -4433,7 +4466,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F127" s="1" t="inlineStr">
         <is>
           <t>id={integer}</t>
         </is>
@@ -4444,13 +4477,13 @@
         </is>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="187.2" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
           <t>saasuser-系统科室管理--pc</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="1" t="inlineStr">
         <is>
           <t>修改科室信息</t>
         </is>
@@ -4470,19 +4503,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G128" s="1" t="inlineStr">
         <is>
           <t>{'applyUserId': 0, 'applyUserName': '', 'classifyCode': '', 'classifyName': '', 'createId': 0, 'createTime': '', 'deptInfo': '', 'endDate': '', 'id': 0, 'localCode': '', 'localName': '', 'mark': 0, 'orgId': 0, 'parentCode': '', 'position': 0, 'standardCode': '', 'standardName': '', 'startDate': '', 'updateId': 0, 'updateTime': ''}</t>
         </is>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="144" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
           <t>代码_标准代码表接口</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="1" t="inlineStr">
         <is>
           <t>新增系统或类别名称或者标准代码--pc</t>
         </is>
@@ -4502,19 +4535,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G129" s="1" t="inlineStr">
         <is>
           <t>{'code': '', 'codeType': '', 'createId': 0, 'createTime': '', 'deps': [], 'id': 0, 'inputCode': '', 'isValid': 0, 'name': '', 'oldCodeType': '', 'oldSysName': '', 'orgNo': '', 'remark': '', 'sort': 0, 'subNo': '', 'sysName': '', 'type': '', 'updateId': 0, 'updateTime': ''}</t>
         </is>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="144" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
           <t>代码_标准代码表接口</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="1" t="inlineStr">
         <is>
           <t>删除系统或类别名称或者标准代码--pc</t>
         </is>
@@ -4529,19 +4562,19 @@
           <t>delete</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G130" s="1" t="inlineStr">
         <is>
           <t>{'code': '', 'codeType': '', 'createId': 0, 'createTime': '', 'deps': [], 'id': 0, 'inputCode': '', 'isValid': 0, 'name': '', 'oldCodeType': '', 'oldSysName': '', 'orgNo': '', 'remark': '', 'sort': 0, 'subNo': '', 'sysName': '', 'type': '', 'updateId': 0, 'updateTime': ''}</t>
         </is>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="28.8" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
           <t>代码_标准代码表接口</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="1" t="inlineStr">
         <is>
           <t>通过系统名称、代码类别查询字典数据--pc,app</t>
         </is>
@@ -4556,7 +4589,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F131" s="1" t="inlineStr">
         <is>
           <t>codeType={string}&amp;sysName={string}</t>
         </is>
@@ -4573,7 +4606,7 @@
           <t>代码_标准代码表接口</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="1" t="inlineStr">
         <is>
           <t>获取标准代码树--pc</t>
         </is>
@@ -4595,7 +4628,7 @@
           <t>代码_标准代码表接口</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="1" t="inlineStr">
         <is>
           <t>根据分类查询标准代码列表--pc</t>
         </is>
@@ -4616,13 +4649,13 @@
         </is>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="144" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
           <t>代码_标准代码表接口</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="1" t="inlineStr">
         <is>
           <t>修改系统或类别名称或者标准代码--pc</t>
         </is>
@@ -4642,7 +4675,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G134" s="1" t="inlineStr">
         <is>
           <t>{'code': '', 'codeType': '', 'createId': 0, 'createTime': '', 'deps': [], 'id': 0, 'inputCode': '', 'isValid': 0, 'name': '', 'oldCodeType': '', 'oldSysName': '', 'orgNo': '', 'remark': '', 'sort': 0, 'subNo': '', 'sysName': '', 'type': '', 'updateId': 0, 'updateTime': ''}</t>
         </is>
@@ -4654,7 +4687,7 @@
           <t>用户系统中心-系统日志管理</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="1" t="inlineStr">
         <is>
           <t>获取系统日志列表</t>
         </is>
@@ -4676,7 +4709,7 @@
           <t>用户系统中心-系统日志管理</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="1" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
@@ -4697,13 +4730,13 @@
         </is>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="115.2" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="1" t="inlineStr">
         <is>
           <t>发送时调用添加患者文章关系表接口-pc、app</t>
         </is>
@@ -4723,19 +4756,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G137" s="1" t="inlineStr">
         <is>
           <t>{'articleIntroId': 0, 'createId': 0, 'createTime': 0, 'empiId': '', 'id': 0, 'issueTime': '', 'issuer': '', 'patientList': [], 'projectId': 0, 'state': 0, 'updateId': '', 'updateTime': '', 'wzList': []}</t>
         </is>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="158.4" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="1" t="inlineStr">
         <is>
           <t>新增-pc</t>
         </is>
@@ -4755,19 +4788,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="G138" s="1" t="inlineStr">
         <is>
           <t>{'articleContent': '', 'articleIntro': '', 'articleName': '', 'author': '', 'cover': '', 'createId': 0, 'createTime': '', 'editName': '', 'editTime': '', 'id': 0, 'issueTime': '', 'issuer': '', 'projectId': 0, 'state': 0, 'updateId': 0, 'updateTime': '', 'viewCount': 0}</t>
         </is>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="43.2" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="1" t="inlineStr">
         <is>
           <t>健康宣教生成上传文件用到的token-pc</t>
         </is>
@@ -4787,7 +4820,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G139" s="1" t="inlineStr">
         <is>
           <t>{'bucket': '', 'isCover': '', 'name': '', 'password': '', 'size': 0, 'userName': ''}</t>
         </is>
@@ -4799,7 +4832,7 @@
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="1" t="inlineStr">
         <is>
           <t>删除-pc</t>
         </is>
@@ -4826,7 +4859,7 @@
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="1" t="inlineStr">
         <is>
           <t>发布-pc</t>
         </is>
@@ -4846,7 +4879,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F141" s="1" t="inlineStr">
         <is>
           <t>id={integer}</t>
         </is>
@@ -4863,7 +4896,7 @@
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="1" t="inlineStr">
         <is>
           <t>根据随访方案查找患者-pc、app</t>
         </is>
@@ -4889,13 +4922,13 @@
         </is>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="158.4" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="1" t="inlineStr">
         <is>
           <t>立即发布-pc</t>
         </is>
@@ -4915,19 +4948,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G143" s="1" t="inlineStr">
         <is>
           <t>{'articleContent': '', 'articleIntro': '', 'articleName': '', 'author': '', 'cover': '', 'createId': 0, 'createTime': '', 'editName': '', 'editTime': '', 'id': 0, 'issueTime': '', 'issuer': '', 'projectId': 0, 'state': 0, 'updateId': 0, 'updateTime': '', 'viewCount': 0}</t>
         </is>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="115.2" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="1" t="inlineStr">
         <is>
           <t>下一步(需要调用cms)-pc、app</t>
         </is>
@@ -4947,7 +4980,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G144" s="1" t="inlineStr">
         <is>
           <t>{'articleIntroId': 0, 'createId': 0, 'createTime': 0, 'empiId': '', 'id': 0, 'issueTime': '', 'issuer': '', 'patientList': [], 'projectId': 0, 'state': 0, 'updateId': '', 'updateTime': '', 'wzList': []}</t>
         </is>
@@ -4959,7 +4992,7 @@
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="1" t="inlineStr">
         <is>
           <t>分页查询-pc</t>
         </is>
@@ -4986,7 +5019,7 @@
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="1" t="inlineStr">
         <is>
           <t>查询个人中心健康宣教信息-pc</t>
         </is>
@@ -5002,13 +5035,13 @@
         </is>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="28.8" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="1" t="inlineStr">
         <is>
           <t>根据文章标题按时间倒序查询-pc、app</t>
         </is>
@@ -5023,7 +5056,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="F147" s="1" t="inlineStr">
         <is>
           <t>currPage={integer}&amp;pageSize={integer}</t>
         </is>
@@ -5040,7 +5073,7 @@
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="1" t="inlineStr">
         <is>
           <t>查询患者信息-pc</t>
         </is>
@@ -5067,7 +5100,7 @@
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="1" t="inlineStr">
         <is>
           <t>通过ID获取一条数据-pc</t>
         </is>
@@ -5094,7 +5127,7 @@
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="1" t="inlineStr">
         <is>
           <t>性别字典-pc、app</t>
         </is>
@@ -5116,7 +5149,7 @@
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="1" t="inlineStr">
         <is>
           <t>停用-pc</t>
         </is>
@@ -5136,7 +5169,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" s="1" t="inlineStr">
         <is>
           <t>id={integer}</t>
         </is>
@@ -5147,13 +5180,13 @@
         </is>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="158.4" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="1" t="inlineStr">
         <is>
           <t>更新-pc</t>
         </is>
@@ -5173,7 +5206,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G152" s="1" t="inlineStr">
         <is>
           <t>{'articleContent': '', 'articleIntro': '', 'articleName': '', 'author': '', 'cover': '', 'createId': 0, 'createTime': '', 'editName': '', 'editTime': '', 'id': 0, 'issueTime': '', 'issuer': '', 'projectId': 0, 'state': 0, 'updateId': 0, 'updateTime': '', 'viewCount': 0}</t>
         </is>
@@ -5185,7 +5218,7 @@
           <t>宣教文章表接口</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="1" t="inlineStr">
         <is>
           <t>查看宣教内容详情-pc</t>
         </is>
@@ -5212,7 +5245,7 @@
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="1" t="inlineStr">
         <is>
           <t>新增-PC</t>
         </is>
@@ -5244,7 +5277,7 @@
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="1" t="inlineStr">
         <is>
           <t>停用/启用-PC</t>
         </is>
@@ -5264,7 +5297,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" s="1" t="inlineStr">
         <is>
           <t>status={boolean}</t>
         </is>
@@ -5276,7 +5309,7 @@
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="1" t="inlineStr">
         <is>
           <t>根据省份code获取市区数据-PC</t>
         </is>
@@ -5291,7 +5324,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F156" s="1" t="inlineStr">
         <is>
           <t>code={string}</t>
         </is>
@@ -5308,7 +5341,7 @@
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="1" t="inlineStr">
         <is>
           <t>获取省份数据-PC</t>
         </is>
@@ -5330,7 +5363,7 @@
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="1" t="inlineStr">
         <is>
           <t>分页查询-PC</t>
         </is>
@@ -5357,7 +5390,7 @@
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="1" t="inlineStr">
         <is>
           <t>查询所有未停用机构-PC</t>
         </is>
@@ -5378,13 +5411,13 @@
         </is>
       </c>
     </row>
-    <row r="160">
+    <row r="160" ht="43.2" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="1" t="inlineStr">
         <is>
           <t>查询机构代码是否重复-PC</t>
         </is>
@@ -5399,7 +5432,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F160" s="1" t="inlineStr">
         <is>
           <t>code={string}&amp;id={string}&amp;saveOrUpdate={string}</t>
         </is>
@@ -5410,13 +5443,13 @@
         </is>
       </c>
     </row>
-    <row r="161">
+    <row r="161" ht="43.2" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="1" t="inlineStr">
         <is>
           <t>查询机构名称是否重复-PC</t>
         </is>
@@ -5431,7 +5464,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="F161" s="1" t="inlineStr">
         <is>
           <t>id={string}&amp;name={string}&amp;saveOrUpdate={string}</t>
         </is>
@@ -5448,7 +5481,7 @@
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="1" t="inlineStr">
         <is>
           <t>查询当前机构对应医联体所有机构-APP</t>
         </is>
@@ -5475,7 +5508,7 @@
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="1" t="inlineStr">
         <is>
           <t>通过ID获取一条数据-PC</t>
         </is>
@@ -5496,13 +5529,13 @@
         </is>
       </c>
     </row>
-    <row r="164">
+    <row r="164" ht="72" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
           <t>saasuser-医疗机构接口</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="1" t="inlineStr">
         <is>
           <t>更新-PC</t>
         </is>
@@ -5522,7 +5555,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="F164" s="1" t="inlineStr">
         <is>
           <t>id={integer}&amp;orgLevel={integer}&amp;orgName={string}&amp;region={string}&amp;regionCity={string}</t>
         </is>
@@ -5539,7 +5572,7 @@
           <t>患者宣教历史表接口</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="1" t="inlineStr">
         <is>
           <t>通过ID获取一条数据-app</t>
         </is>
@@ -5560,13 +5593,13 @@
         </is>
       </c>
     </row>
-    <row r="166">
+    <row r="166" ht="43.2" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B166" s="1" t="inlineStr">
         <is>
           <t>咨询配置更新-PC</t>
         </is>
@@ -5586,7 +5619,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F166" s="1" t="inlineStr">
         <is>
           <t>id={integer}&amp;isCharge={integer}&amp;isSign={integer}</t>
         </is>
@@ -5603,7 +5636,7 @@
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="1" t="inlineStr">
         <is>
           <t>新增-PC</t>
         </is>
@@ -5629,13 +5662,13 @@
         </is>
       </c>
     </row>
-    <row r="168">
+    <row r="168" ht="28.8" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="1" t="inlineStr">
         <is>
           <t>删除项目关联的角色-PC</t>
         </is>
@@ -5655,7 +5688,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F168" s="1" t="inlineStr">
         <is>
           <t>projectId={integer}&amp;roleId={integer}</t>
         </is>
@@ -5666,13 +5699,13 @@
         </is>
       </c>
     </row>
-    <row r="169">
+    <row r="169" ht="28.8" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="1" t="inlineStr">
         <is>
           <t>删除项目关联的用户-PC</t>
         </is>
@@ -5692,7 +5725,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F169" s="1" t="inlineStr">
         <is>
           <t>projectId={integer}&amp;userId={integer}</t>
         </is>
@@ -5709,7 +5742,7 @@
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="1" t="inlineStr">
         <is>
           <t>查询项目对应机构科室信息-PC</t>
         </is>
@@ -5724,7 +5757,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F170" s="1" t="inlineStr">
         <is>
           <t>projectId={integer}</t>
         </is>
@@ -5741,7 +5774,7 @@
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="1" t="inlineStr">
         <is>
           <t>根据机构ID查询项目列表-APP</t>
         </is>
@@ -5756,7 +5789,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" s="1" t="inlineStr">
         <is>
           <t>orgId={integer}</t>
         </is>
@@ -5773,7 +5806,7 @@
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="1" t="inlineStr">
         <is>
           <t>分页查询-PC</t>
         </is>
@@ -5800,7 +5833,7 @@
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="1" t="inlineStr">
         <is>
           <t>项目人员保存-PC</t>
         </is>
@@ -5826,13 +5859,13 @@
         </is>
       </c>
     </row>
-    <row r="174">
+    <row r="174" ht="28.8" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="1" t="inlineStr">
         <is>
           <t>查询项目名称是否重复-PC</t>
         </is>
@@ -5847,7 +5880,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="1" t="inlineStr">
         <is>
           <t>id={integer}&amp;saveOrUpdate={string}</t>
         </is>
@@ -5858,13 +5891,13 @@
         </is>
       </c>
     </row>
-    <row r="175">
+    <row r="175" ht="28.8" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="1" t="inlineStr">
         <is>
           <t>查询指定项目人员菜单信息-APP、PC</t>
         </is>
@@ -5879,7 +5912,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F175" s="1" t="inlineStr">
         <is>
           <t>projectId={integer}&amp;userId={integer}</t>
         </is>
@@ -5896,7 +5929,7 @@
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="1" t="inlineStr">
         <is>
           <t>查询所有项目信息</t>
         </is>
@@ -5918,7 +5951,7 @@
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="1" t="inlineStr">
         <is>
           <t>项目角色查询-PC</t>
         </is>
@@ -5933,7 +5966,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F177" s="1" t="inlineStr">
         <is>
           <t>projectId={integer}</t>
         </is>
@@ -5944,13 +5977,13 @@
         </is>
       </c>
     </row>
-    <row r="178">
+    <row r="178" ht="28.8" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="1" t="inlineStr">
         <is>
           <t>项目菜单查询-PC</t>
         </is>
@@ -5965,7 +5998,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F178" s="1" t="inlineStr">
         <is>
           <t>projectId={integer}&amp;roleId={integer}</t>
         </is>
@@ -5982,7 +6015,7 @@
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="1" t="inlineStr">
         <is>
           <t>查询项目人员信息-APP、PC</t>
         </is>
@@ -5997,7 +6030,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F179" s="1" t="inlineStr">
         <is>
           <t>projectId={integer}</t>
         </is>
@@ -6008,13 +6041,13 @@
         </is>
       </c>
     </row>
-    <row r="180">
+    <row r="180" ht="57.6" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="1" t="inlineStr">
         <is>
           <t>查询角色名称是否重复-PC</t>
         </is>
@@ -6029,7 +6062,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="1" t="inlineStr">
         <is>
           <t>id={integer}&amp;name={string}&amp;projectId={integer}&amp;saveOrUpdate={string}</t>
         </is>
@@ -6046,7 +6079,7 @@
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="1" t="inlineStr">
         <is>
           <t>查询登录人项目信息-APP、PC</t>
         </is>
@@ -6061,7 +6094,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F181" s="1" t="inlineStr">
         <is>
           <t>userId={integer}</t>
         </is>
@@ -6078,7 +6111,7 @@
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="1" t="inlineStr">
         <is>
           <t>角色权限保存-PC</t>
         </is>
@@ -6098,7 +6131,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F182" s="1" t="inlineStr">
         <is>
           <t>projectId={integer}</t>
         </is>
@@ -6109,13 +6142,13 @@
         </is>
       </c>
     </row>
-    <row r="183">
+    <row r="183" ht="43.2" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="1" t="inlineStr">
         <is>
           <t>系统模块保存-PC</t>
         </is>
@@ -6135,19 +6168,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="G183" s="1" t="inlineStr">
         <is>
           <t>{'projectId': 0, 'residueSystemIds': [], 'systemIds': []}</t>
         </is>
       </c>
     </row>
-    <row r="184">
+    <row r="184" ht="28.8" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
           <t>saasuser-项目管理表接口</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="1" t="inlineStr">
         <is>
           <t>修改保存角色信息-PC</t>
         </is>
@@ -6167,7 +6200,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F184" s="1" t="inlineStr">
         <is>
           <t>id={integer}&amp;name={string}</t>
         </is>
@@ -6184,7 +6217,7 @@
           <t>saasuser-医联体接口</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="1" t="inlineStr">
         <is>
           <t>查询医联体名称是否重复-PC</t>
         </is>
@@ -6199,7 +6232,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F185" s="1" t="inlineStr">
         <is>
           <t>name={string}</t>
         </is>
@@ -6216,7 +6249,7 @@
           <t>saasuser-医联体接口</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="1" t="inlineStr">
         <is>
           <t>新增-PC</t>
         </is>
@@ -6248,7 +6281,7 @@
           <t>saasuser-医联体接口</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="1" t="inlineStr">
         <is>
           <t>医院机构查询-PC</t>
         </is>
@@ -6275,7 +6308,7 @@
           <t>saasuser-医联体接口</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="1" t="inlineStr">
         <is>
           <t>查询医联体机构-APP、PC</t>
         </is>
@@ -6290,7 +6323,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="F188" s="1" t="inlineStr">
         <is>
           <t>orgId={integer}</t>
         </is>
@@ -6307,7 +6340,7 @@
           <t>saasuser-医联体接口</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="1" t="inlineStr">
         <is>
           <t>分页查询-PC</t>
         </is>
@@ -6334,7 +6367,7 @@
           <t>saasuser-医联体接口</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="1" t="inlineStr">
         <is>
           <t>通过ID获取一条数据-PC</t>
         </is>
@@ -6355,13 +6388,13 @@
         </is>
       </c>
     </row>
-    <row r="191">
+    <row r="191" ht="28.8" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
           <t>saasuser-医联体接口</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="1" t="inlineStr">
         <is>
           <t>更新-PC</t>
         </is>
@@ -6381,7 +6414,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F191" s="1" t="inlineStr">
         <is>
           <t>checkedOrg={array}&amp;name={string}</t>
         </is>
@@ -6392,13 +6425,13 @@
         </is>
       </c>
     </row>
-    <row r="192">
+    <row r="192" ht="409.6" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" s="1" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
@@ -6418,19 +6451,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="G192" s="1" t="inlineStr">
         <is>
           <t>{'administrativeDuties': 0, 'applyUserId': 0, 'birthPlace': 0, 'birthday': '', 'cardNo': '', 'compilationSituation': 0, 'createId': 0, 'createTime': '', 'degree': 0, 'deptCode': 0, 'deptStr': '', 'deptUserId': 0, 'descr': '', 'educationalHistory': 0, 'email': '', 'endDate': '', 'id': 0, 'idCardType': 0, 'lastLoginoutProject': 0, 'mobile': '', 'nationality': 0, 'orgCode': 0, 'orgStr': '', 'password': '', 'personnelCategory': 0, 'personnelCategoryStr': '', 'physicianPracticeCategory': 0, 'physicianPracticeScope': 0, 'practiceJobCategory': 0, 'professionalCategory': 0, 'professionalTechJob': 0, 'profilePicture': '', 'registerTime': '', 'sex': 0, 'sexStr': '', 'shortName': '', 'startDate': '', 'status': 0, 'title': 0, 'titleStr': '', 'type': 0, 'updateId': 0, 'updateTime': '', 'userName': '', 'userNo': '', 'wardId': 0, 'wardStr': ''}</t>
         </is>
       </c>
     </row>
-    <row r="193">
+    <row r="193" ht="43.2" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="1" t="inlineStr">
         <is>
           <t>生成上传文件用到的token</t>
         </is>
@@ -6450,7 +6483,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
+      <c r="G193" s="1" t="inlineStr">
         <is>
           <t>{'bucket': '', 'isCover': '', 'name': '', 'password': '', 'size': 0, 'userName': ''}</t>
         </is>
@@ -6462,7 +6495,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="1" t="inlineStr">
         <is>
           <t>获取系统管理用户信息</t>
         </is>
@@ -6489,7 +6522,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="1" t="inlineStr">
         <is>
           <t>获取项目可新增人员列表</t>
         </is>
@@ -6521,7 +6554,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="1" t="inlineStr">
         <is>
           <t>添加用户时的下拉列表</t>
         </is>
@@ -6548,7 +6581,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="1" t="inlineStr">
         <is>
           <t>注册人员-下拉列表</t>
         </is>
@@ -6575,7 +6608,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="1" t="inlineStr">
         <is>
           <t>分页获取用户列表</t>
         </is>
@@ -6602,7 +6635,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="1" t="inlineStr">
         <is>
           <t>获取项目人员列表</t>
         </is>
@@ -6629,7 +6662,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="1" t="inlineStr">
         <is>
           <t>获取项目人员编辑角色列表</t>
         </is>
@@ -6661,7 +6694,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="1" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
@@ -6688,7 +6721,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="1" t="inlineStr">
         <is>
           <t>通过ID获取一条数据</t>
         </is>
@@ -6709,13 +6742,13 @@
         </is>
       </c>
     </row>
-    <row r="203">
+    <row r="203" ht="57.6" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="1" t="inlineStr">
         <is>
           <t>新增系统管理用户</t>
         </is>
@@ -6735,19 +6768,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="G203" s="1" t="inlineStr">
         <is>
           <t>{'projectId': 0, 'roleList': [], 'userDetailId': 0, 'userId': 0, 'userName': '', 'userNo': ''}</t>
         </is>
       </c>
     </row>
-    <row r="204">
+    <row r="204" ht="409.6" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="1" t="inlineStr">
         <is>
           <t>修改用户</t>
         </is>
@@ -6767,19 +6800,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="G204" s="1" t="inlineStr">
         <is>
           <t>{'administrativeDuties': 0, 'applyUserId': 0, 'birthPlace': 0, 'birthday': '', 'cardNo': '', 'compilationSituation': 0, 'createId': 0, 'createTime': '', 'degree': 0, 'deptCode': 0, 'deptStr': '', 'deptUserId': 0, 'descr': '', 'educationalHistory': 0, 'email': '', 'endDate': '', 'id': 0, 'idCardType': 0, 'lastLoginoutProject': 0, 'mobile': '', 'nationality': 0, 'orgCode': 0, 'orgStr': '', 'password': '', 'personnelCategory': 0, 'personnelCategoryStr': '', 'physicianPracticeCategory': 0, 'physicianPracticeScope': 0, 'practiceJobCategory': 0, 'professionalCategory': 0, 'professionalTechJob': 0, 'profilePicture': '', 'registerTime': '', 'sex': 0, 'sexStr': '', 'shortName': '', 'startDate': '', 'status': 0, 'title': 0, 'titleStr': '', 'type': 0, 'updateId': 0, 'updateTime': '', 'userName': '', 'userNo': '', 'wardId': 0, 'wardStr': ''}</t>
         </is>
       </c>
     </row>
-    <row r="205">
+    <row r="205" ht="57.6" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="1" t="inlineStr">
         <is>
           <t>修改系统管理用户信息</t>
         </is>
@@ -6799,19 +6832,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="G205" s="1" t="inlineStr">
         <is>
           <t>{'projectId': 0, 'roleList': [], 'userDetailId': 0, 'userId': 0, 'userName': '', 'userNo': ''}</t>
         </is>
       </c>
     </row>
-    <row r="206">
+    <row r="206" ht="28.8" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="1" t="inlineStr">
         <is>
           <t>修改用户状态，0：禁用   1：正常</t>
         </is>
@@ -6831,7 +6864,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F206" s="1" t="inlineStr">
         <is>
           <t>status={integer}&amp;userId={integer}</t>
         </is>
@@ -6848,7 +6881,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="1" t="inlineStr">
         <is>
           <t>重复校验</t>
         </is>
@@ -6875,7 +6908,7 @@
           <t xml:space="preserve">用户系统中心-人员注册管理 </t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="1" t="inlineStr">
         <is>
           <t>校验手机号是否可用</t>
         </is>
@@ -6902,7 +6935,7 @@
           <t>医生咨询费用表接口</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="1" t="inlineStr">
         <is>
           <t>获取当前登录当前病种的收费信息-app</t>
         </is>
@@ -6923,13 +6956,13 @@
         </is>
       </c>
     </row>
-    <row r="210">
+    <row r="210" ht="100.8" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
           <t>医生咨询费用表接口</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="1" t="inlineStr">
         <is>
           <t>保存当前登录人收费信息-app</t>
         </is>
@@ -6949,19 +6982,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="G210" s="1" t="inlineStr">
         <is>
           <t>{'createId': 0, 'createTime': '', 'diseaseTypeCode': 0, 'docId': 0, 'id': 0, 'isCharge': 0, 'isDelete': 0, 'isOpen': 0, 'price': 0, 'updateId': 0, 'updateTime': ''}</t>
         </is>
       </c>
     </row>
-    <row r="211">
+    <row r="211" ht="72" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
           <t>医生咨询费用表接口</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="1" t="inlineStr">
         <is>
           <t>更新收费信息-app</t>
         </is>
@@ -6981,7 +7014,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="F211" s="1" t="inlineStr">
         <is>
           <t>chargeStatus={integer}&amp;diseaseTypeCode={integer}&amp;openStatus={integer}&amp;price={integer}</t>
         </is>
@@ -6998,7 +7031,7 @@
           <t>医生日程表接口-app</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="1" t="inlineStr">
         <is>
           <t>新增医生日程</t>
         </is>
@@ -7030,7 +7063,7 @@
           <t>医生日程表接口-app</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="1" t="inlineStr">
         <is>
           <t>删除医生日程</t>
         </is>
@@ -7062,7 +7095,7 @@
           <t>医生日程表接口-app</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="1" t="inlineStr">
         <is>
           <t>获取某月日程</t>
         </is>
@@ -7089,7 +7122,7 @@
           <t>医生日程表接口-app</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="1" t="inlineStr">
         <is>
           <t>通过日程id，获取日程信息</t>
         </is>
@@ -7116,7 +7149,7 @@
           <t>医生日程表接口-app</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="1" t="inlineStr">
         <is>
           <t>更新医生日程</t>
         </is>
@@ -7148,7 +7181,7 @@
           <t>心电异常提醒接口</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="1" t="inlineStr">
         <is>
           <t>确认或修改心电AI诊断</t>
         </is>
@@ -7180,7 +7213,7 @@
           <t>心电异常提醒接口</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="1" t="inlineStr">
         <is>
           <t>确诊患者-列表下载-pc</t>
         </is>
@@ -7207,7 +7240,7 @@
           <t>心电异常提醒接口</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="1" t="inlineStr">
         <is>
           <t>确诊患者-分页列表-pc</t>
         </is>
@@ -7234,7 +7267,7 @@
           <t>心电异常提醒接口</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="1" t="inlineStr">
         <is>
           <t>查看心电预警信息-app</t>
         </is>
@@ -7255,13 +7288,13 @@
         </is>
       </c>
     </row>
-    <row r="221">
+    <row r="221" ht="28.8" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
           <t>心电异常提醒接口</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="1" t="inlineStr">
         <is>
           <t>查看是否有未确认心电预警信息0=无1=有-app</t>
         </is>
@@ -7283,7 +7316,7 @@
           <t>消息模板表接口</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="1" t="inlineStr">
         <is>
           <t>新增消息模板-pc、app</t>
         </is>
@@ -7303,7 +7336,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F222" s="1" t="inlineStr">
         <is>
           <t>content={string}</t>
         </is>
@@ -7320,7 +7353,7 @@
           <t>消息模板表接口</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="1" t="inlineStr">
         <is>
           <t>删除消息模板-pc、app</t>
         </is>
@@ -7352,7 +7385,7 @@
           <t>消息模板表接口</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="1" t="inlineStr">
         <is>
           <t>批量查询-pc、app</t>
         </is>
@@ -7374,7 +7407,7 @@
           <t>消息模板表接口</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="1" t="inlineStr">
         <is>
           <t>分页查询消息模板-pc</t>
         </is>
@@ -7401,7 +7434,7 @@
           <t>消息模板表接口</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="1" t="inlineStr">
         <is>
           <t>更新消息模板-pc、app</t>
         </is>
@@ -7421,7 +7454,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F226" s="1" t="inlineStr">
         <is>
           <t>content={string}</t>
         </is>
@@ -7438,7 +7471,7 @@
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="1" t="inlineStr">
         <is>
           <t>医生删除未入组患者信息（管理组）-app</t>
         </is>
@@ -7453,7 +7486,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F227" s="1" t="inlineStr">
         <is>
           <t>empiId={string}</t>
         </is>
@@ -7470,7 +7503,7 @@
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="1" t="inlineStr">
         <is>
           <t>删除对照组患者-app</t>
         </is>
@@ -7496,13 +7529,13 @@
         </is>
       </c>
     </row>
-    <row r="229">
+    <row r="229" ht="100.8" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="1" t="inlineStr">
         <is>
           <t>导出患者随访记录-pc</t>
         </is>
@@ -7522,7 +7555,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="G229" s="1" t="inlineStr">
         <is>
           <t>{'beginAge': 0, 'currentPage': 0, 'docName': '', 'endAge': 0, 'followUpComplete': '', 'groupType': '', 'name': '', 'orgId': 0, 'orgIdList': [], 'pageSize': 0, 'statusList': []}</t>
         </is>
@@ -7534,7 +7567,7 @@
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="1" t="inlineStr">
         <is>
           <t>查询医生对照组下的患者-app</t>
         </is>
@@ -7555,13 +7588,13 @@
         </is>
       </c>
     </row>
-    <row r="231">
+    <row r="231" ht="72" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="1" t="inlineStr">
         <is>
           <t>查询未申请或已申请患者列表-app</t>
         </is>
@@ -7576,7 +7609,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F231" s="1" t="inlineStr">
         <is>
           <t>applyType={integer}&amp;currPage={integer}&amp;diseaseTypeId={integer}&amp;pageSize={integer}</t>
         </is>
@@ -7593,7 +7626,7 @@
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="1" t="inlineStr">
         <is>
           <t>获取患者统计数据-pc</t>
         </is>
@@ -7609,13 +7642,13 @@
         </is>
       </c>
     </row>
-    <row r="233">
+    <row r="233" ht="28.8" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="1" t="inlineStr">
         <is>
           <t>通过姓名，身份证码获取患者电话号码-app</t>
         </is>
@@ -7630,7 +7663,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="1" t="inlineStr">
         <is>
           <t>idCardNo={string}&amp;name={string}</t>
         </is>
@@ -7647,7 +7680,7 @@
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="1" t="inlineStr">
         <is>
           <t>患者组别下拉框-pc、app</t>
         </is>
@@ -7669,7 +7702,7 @@
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="1" t="inlineStr">
         <is>
           <t>分页查询-app</t>
         </is>
@@ -7690,13 +7723,13 @@
         </is>
       </c>
     </row>
-    <row r="236">
+    <row r="236" ht="100.8" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="1" t="inlineStr">
         <is>
           <t>患者管理-高血压管理组分页列表-app</t>
         </is>
@@ -7716,19 +7749,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
+      <c r="G236" s="1" t="inlineStr">
         <is>
           <t>{'beginAge': 0, 'currentPage': 0, 'docName': '', 'endAge': 0, 'followUpComplete': '', 'groupType': '', 'name': '', 'orgId': 0, 'orgIdList': [], 'pageSize': 0, 'statusList': []}</t>
         </is>
       </c>
     </row>
-    <row r="237">
+    <row r="237" ht="115.2" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="1" t="inlineStr">
         <is>
           <t>患者报道注册-app</t>
         </is>
@@ -7748,19 +7781,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="G237" s="1" t="inlineStr">
         <is>
           <t>{'diseaseTypeId': 0, 'doctorId': 0, 'doctorName': '', 'empiId': '', 'grading': '', 'idCardNo': '', 'itemId': '', 'name': '', 'orgId': 0, 'pciSurgeryTime': '', 'phone': '', 'registerAndReceivedFlag': 0, 'surgicalSite': ''}</t>
         </is>
       </c>
     </row>
-    <row r="238">
+    <row r="238" ht="43.2" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="1" t="inlineStr">
         <is>
           <t>接收患者入组-app</t>
         </is>
@@ -7780,7 +7813,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="F238" s="1" t="inlineStr">
         <is>
           <t>docId={integer}&amp;empiId={string}&amp;itemId={string}</t>
         </is>
@@ -7797,7 +7830,7 @@
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="1" t="inlineStr">
         <is>
           <t>分级代码-app</t>
         </is>
@@ -7813,13 +7846,13 @@
         </is>
       </c>
     </row>
-    <row r="240">
+    <row r="240" ht="72" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="1" t="inlineStr">
         <is>
           <t>患者列表查询-app</t>
         </is>
@@ -7839,19 +7872,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="G240" s="1" t="inlineStr">
         <is>
           <t>{'currPage': 0, 'followId': '', 'followUpComplete': '', 'itemId': 0, 'pageSize': 0, 'patientName': '', 'riskLevel': ''}</t>
         </is>
       </c>
     </row>
-    <row r="241">
+    <row r="241" ht="100.8" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="1" t="inlineStr">
         <is>
           <t>根据机构id，分页查询患者信息-pc、app</t>
         </is>
@@ -7871,7 +7904,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr">
+      <c r="G241" s="1" t="inlineStr">
         <is>
           <t>{'beginAge': 0, 'currentPage': 0, 'docName': '', 'endAge': 0, 'followUpComplete': '', 'groupType': '', 'name': '', 'orgId': 0, 'orgIdList': [], 'pageSize': 0, 'statusList': []}</t>
         </is>
@@ -7883,7 +7916,7 @@
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="1" t="inlineStr">
         <is>
           <t>单个患者查询-app</t>
         </is>
@@ -7910,7 +7943,7 @@
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="1" t="inlineStr">
         <is>
           <t>退出管理组-app</t>
         </is>
@@ -7936,13 +7969,13 @@
         </is>
       </c>
     </row>
-    <row r="244">
+    <row r="244" ht="201.6" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="1" t="inlineStr">
         <is>
           <t>新增患者-app</t>
         </is>
@@ -7962,19 +7995,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
+      <c r="G244" s="1" t="inlineStr">
         <is>
           <t>{'age': '', 'avatar': '', 'belongDocId': 0, 'birthday': '', 'completeTag': '', 'dateAdded': '', 'empiId': '', 'fatFlag': '', 'followId': 0, 'followUpStatus': '', 'grading': '', 'gradingName': '', 'historyState': '', 'id': 0, 'idCardNo': '', 'itemId': '', 'name': '', 'phone': '', 'referralDocId': 0, 'riskLevelName': '', 'sex': '', 'sexName': '', 'state': 0, 'status': ''}</t>
         </is>
       </c>
     </row>
-    <row r="245">
+    <row r="245" ht="72" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="1" t="inlineStr">
         <is>
           <t>添加对照组患者-app</t>
         </is>
@@ -7994,7 +8027,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
+      <c r="G245" s="1" t="inlineStr">
         <is>
           <t>{'doctorDesignatedFlag': 0, 'doctorId': 0, 'doctorName': '', 'idCardNo': '', 'itemId': '', 'name': '', 'orgId': 0, 'phone': ''}</t>
         </is>
@@ -8006,7 +8039,7 @@
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="1" t="inlineStr">
         <is>
           <t>患者管理-统计-app</t>
         </is>
@@ -8026,19 +8059,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
+      <c r="G246" s="1" t="inlineStr">
         <is>
           <t>{'orgId': 0, 'orgName': ''}</t>
         </is>
       </c>
     </row>
-    <row r="247">
+    <row r="247" ht="28.8" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="1" t="inlineStr">
         <is>
           <t>修改对照组患者-app</t>
         </is>
@@ -8058,19 +8091,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
+      <c r="G247" s="1" t="inlineStr">
         <is>
           <t>{'empiId': '', 'idCardNo': '', 'name': '', 'phone': ''}</t>
         </is>
       </c>
     </row>
-    <row r="248">
+    <row r="248" ht="86.40000000000001" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="1" t="inlineStr">
         <is>
           <t>医生修改未入组患者信息（管理组）-app</t>
         </is>
@@ -8090,7 +8123,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
+      <c r="G248" s="1" t="inlineStr">
         <is>
           <t>{'empiId': '', 'idCardNo': '', 'itemId': '', 'name': '', 'orgId': 0, 'phone': '', 'registerAndReceivedFlag': 0, 'updateDoctorId': 0, 'updateDoctorName': ''}</t>
         </is>
@@ -8102,7 +8135,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="1" t="inlineStr">
         <is>
           <t>解锁屏幕</t>
         </is>
@@ -8134,7 +8167,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="1" t="inlineStr">
         <is>
           <t>删除用户</t>
         </is>
@@ -8166,7 +8199,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="1" t="inlineStr">
         <is>
           <t>获取动态验证码</t>
         </is>
@@ -8193,7 +8226,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="1" t="inlineStr">
         <is>
           <t>根据用户详情id，获取用户编辑信息</t>
         </is>
@@ -8220,7 +8253,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="1" t="inlineStr">
         <is>
           <t>查询用户协议</t>
         </is>
@@ -8247,7 +8280,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="1" t="inlineStr">
         <is>
           <t>查询当前登录用户</t>
         </is>
@@ -8269,7 +8302,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="1" t="inlineStr">
         <is>
           <t>用户列表</t>
         </is>
@@ -8296,7 +8329,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="1" t="inlineStr">
         <is>
           <t>重置密码</t>
         </is>
@@ -8323,7 +8356,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="1" t="inlineStr">
         <is>
           <t>保存用户当前登录的系统</t>
         </is>
@@ -8349,13 +8382,13 @@
         </is>
       </c>
     </row>
-    <row r="258">
+    <row r="258" ht="374.4" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="1" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
@@ -8375,7 +8408,7 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
+      <c r="G258" s="1" t="inlineStr">
         <is>
           <t>{'accountEffectTime': '', 'accountInvalidTime': '', 'allowErrorNum': 0, 'allowLoginTime': '', 'crcFlag': '?', 'deptCodeName': '', 'deptStr': '', 'email': '', 'id': 0, 'isCanLoginApplet': 0, 'isForcedPasswordExpiration': 0, 'lastLoginoutProject': 0, 'mobile': '', 'orgId': 0, 'password': '', 'passwordEffectDay': 0, 'passwordErrorNum': 0, 'passwordInvalidDate': '', 'passwordLockDuration': '', 'passwordLockTimes': 0, 'professionalTechJobName': '', 'profilePicture': '', 'roleStr': '', 'secretEffectTime': '', 'secretInvalidTime': '', 'status': 0, 'statusStr': '', 'type': 0, 'userDetailId': 0, 'userName': '', 'userNo': '', 'userRoleList': []}</t>
         </is>
@@ -8387,7 +8420,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="1" t="inlineStr">
         <is>
           <t>屏幕定时锁定接口</t>
         </is>
@@ -8414,7 +8447,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="1" t="inlineStr">
         <is>
           <t>修改用户的密码</t>
         </is>
@@ -8446,7 +8479,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="1" t="inlineStr">
         <is>
           <t>小程序端医生换绑手机号</t>
         </is>
@@ -8472,13 +8505,13 @@
         </is>
       </c>
     </row>
-    <row r="262">
+    <row r="262" ht="374.4" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="1" t="inlineStr">
         <is>
           <t>修改用户</t>
         </is>
@@ -8498,19 +8531,19 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr">
+      <c r="G262" s="1" t="inlineStr">
         <is>
           <t>{'accountEffectTime': '', 'accountInvalidTime': '', 'allowErrorNum': 0, 'allowLoginTime': '', 'crcFlag': '?', 'deptCodeName': '', 'deptStr': '', 'email': '', 'id': 0, 'isCanLoginApplet': 0, 'isForcedPasswordExpiration': 0, 'lastLoginoutProject': 0, 'mobile': '', 'orgId': 0, 'password': '', 'passwordEffectDay': 0, 'passwordErrorNum': 0, 'passwordInvalidDate': '', 'passwordLockDuration': '', 'passwordLockTimes': 0, 'professionalTechJobName': '', 'profilePicture': '', 'roleStr': '', 'secretEffectTime': '', 'secretInvalidTime': '', 'status': 0, 'statusStr': '', 'type': 0, 'userDetailId': 0, 'userName': '', 'userNo': '', 'userRoleList': []}</t>
         </is>
       </c>
     </row>
-    <row r="263">
+    <row r="263" ht="28.8" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="1" t="inlineStr">
         <is>
           <t>修改用户状态，0：禁用   1：正常</t>
         </is>
@@ -8530,7 +8563,7 @@
           <t>application/x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F263" s="1" t="inlineStr">
         <is>
           <t>status={integer}&amp;userDetailId={integer}</t>
         </is>
@@ -8547,7 +8580,7 @@
           <t>用户系统中心-用户管理</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="1" t="inlineStr">
         <is>
           <t>校验手机验证码</t>
         </is>
@@ -8575,6 +8608,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
